--- a/data/chart/chart-13.xlsx
+++ b/data/chart/chart-13.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F887"/>
+  <dimension ref="A1:N888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,46 @@
           <t>faulty</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>pre_0.3</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pre_0.5</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pre_0.7</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pre_1</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pre_1.3</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>pre_1.5</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>pre_1.7</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>pre_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -481,6 +521,46 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,6 +590,46 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -539,6 +659,41 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -568,6 +723,41 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -597,6 +787,36 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -626,6 +846,36 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -655,6 +905,31 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -684,6 +959,31 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -713,6 +1013,26 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -742,6 +1062,26 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -771,6 +1111,26 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -800,6 +1160,21 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -829,6 +1204,21 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -858,6 +1248,16 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -887,6 +1287,16 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -916,6 +1326,11 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -945,6 +1360,11 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -26147,7 +26567,8 @@
         <v>0</v>
       </c>
     </row>
+    <row r="888"/>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>